--- a/hourly datasets/cap_gen_year-4final.xlsx
+++ b/hourly datasets/cap_gen_year-4final.xlsx
@@ -478,621 +478,691 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0002711428863202213</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.001893113864979828</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.1212214444223008</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.173325430043782</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.003981620639072324</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.003439334866431882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07773184635505312</v>
+        <v>0.07699423965621355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>0.002136065079397322</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.000714064924072249</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.442321740502984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001357445521550493</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0007365197392141638</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.003535610419580481</v>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07913030473561088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>0.01159257279452226</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001219869276552708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.283266409881842</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.455491085022402e-09</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.009201666129321493</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01398347945972302</v>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.08858681245073581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>0.0531000885534139</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002471498364642754</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.81244191468928</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.614122183643611e-101</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04825602623055938</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05794415087626842</v>
+      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1300943282096275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>0.06627064596797026</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003612342372319574</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.51825469578559</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.907706688816555e-26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05919056869522173</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0733507232407188</v>
+      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1432648856241838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>0.05303816425748428</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0154542645840133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.22876526854494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2749095327643388</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02274831094093235</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.08332801757403621</v>
+      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1300324039136978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>0.06357106548722641</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01182015119928298</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.9415281229764</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09720988479359305</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04040395282381733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0867381781506355</v>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.14056530514344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.07800298924137335</v>
+        <v>0.05861274728887465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000930581210973862</v>
+        <v>0.0050077386367045</v>
       </c>
       <c r="D9" t="n">
-        <v>-86.2074628032456</v>
+        <v>17.80121790097613</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02970079211986037</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0798269122684841</v>
+        <v>0.04879773942199888</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07617906621426256</v>
+        <v>0.06842775515575042</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1356069869450882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>20%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02778888565523282</v>
+        <v>-0.07699423965621355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009669658633141311</v>
+        <v>0.0004765546690353926</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.56226687447724</v>
+        <v>-174.5266124724704</v>
       </c>
       <c r="E10" t="n">
-        <v>2.00495715086178e-39</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02968412203496204</v>
+        <v>-0.07792827213294053</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02589364927550359</v>
+        <v>-0.07606020717948657</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05021410358614052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02395760646356888</v>
+        <v>-0.02888212564271414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000949899108663456</v>
+        <v>0.0004980814961774719</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.66931524375359</v>
+        <v>-61.68005171812727</v>
       </c>
       <c r="E11" t="n">
-        <v>1.567729404576586e-17</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02581939223614884</v>
+        <v>-0.02985835004141893</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02209582069098893</v>
+        <v>-0.02790590124400934</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05404538277780446</v>
+        <v>0.04811211401349941</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01927041234234112</v>
+        <v>-0.02402224049891178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009390937022523964</v>
+        <v>0.0004883737916974052</v>
       </c>
       <c r="D12" t="n">
-        <v>-20.70513009818444</v>
+        <v>-52.23973010935477</v>
       </c>
       <c r="E12" t="n">
-        <v>2.162476047295751e-12</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02111101978575794</v>
+        <v>-0.02497943809540563</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0174298048989243</v>
+        <v>-0.02306504290241793</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05873257689903223</v>
+        <v>0.05297199915730177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01662195184705719</v>
+        <v>-0.02020633602369902</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009190760957692739</v>
+        <v>0.0004846976399385352</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.63546674975454</v>
+        <v>-42.88596983142469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001536506039913463</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01842332513725681</v>
+        <v>-0.02115632847994901</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01482057855685758</v>
+        <v>-0.01925634356744903</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06138103739431615</v>
+        <v>0.05678790363251453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01494664062039874</v>
+        <v>-0.01749104368499764</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009095927284472337</v>
+        <v>0.0004731942471222773</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.85195267568571</v>
+        <v>-37.93460796680762</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1016756654989304</v>
+        <v>9.361632976665488e-262</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01672942659143163</v>
+        <v>-0.01841848984119145</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01316385464936584</v>
+        <v>-0.01656359752880383</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0630563486209746</v>
+        <v>0.05950319597121591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01052469639272803</v>
+        <v>-0.01477166331715771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009016433703781823</v>
+        <v>0.0004719296174076465</v>
       </c>
       <c r="D15" t="n">
-        <v>-12.25356289400504</v>
+        <v>-33.50377036548491</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002628413441194999</v>
+        <v>5.351999412689911e-152</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01229190185271702</v>
+        <v>-0.01569663085005864</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.008757490932739045</v>
+        <v>-0.01384669578425677</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06747829284864532</v>
+        <v>0.06222257633905584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01037601800347285</v>
+        <v>-0.0109059500294208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009318361529165902</v>
+        <v>0.0004735548231036322</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.81287561279648</v>
+        <v>-24.60616739008181</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09907310515697523</v>
+        <v>7.461792989506166e-87</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01220240071190861</v>
+        <v>-0.0118341029308993</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.008549635295037097</v>
+        <v>-0.009977797127942304</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06762697123790049</v>
+        <v>0.06608828962679275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.00595943107899787</v>
+        <v>-0.01128488307986634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009594583050051152</v>
+        <v>0.0004882389048789513</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.679315496081033</v>
+        <v>-23.18263302348532</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01673635059728757</v>
+        <v>7.117298691780633e-117</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.007839952639122573</v>
+        <v>-0.01224181632010759</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.004078909518873168</v>
+        <v>-0.01032794983962509</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07204355816237548</v>
+        <v>0.0657093565763472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007019673503893596</v>
+        <v>-0.007760298307205492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009462446699729597</v>
+        <v>0.0004969206605491901</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.893449871112145</v>
+        <v>-14.61443822485369</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05421476778354788</v>
+        <v>1.618521401045535e-29</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.008874296645098433</v>
+        <v>-0.008734247508980778</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005165050362688758</v>
+        <v>-0.006786349105430205</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07098331573747975</v>
+        <v>0.06923394134900805</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00713665481285357</v>
+        <v>-0.007789544702405066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000970635464403663</v>
+        <v>0.0004937492989384938</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.930085682034667</v>
+        <v>-16.18269818329463</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0008477723110047443</v>
+        <v>1.88988338419006e-50</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.009039083379043831</v>
+        <v>-0.008757278149521829</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005234226246663311</v>
+        <v>-0.006821811255288304</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07086633442851978</v>
+        <v>0.06920469495380849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00509393121877216</v>
+        <v>-0.007957848445520917</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0009947203473421732</v>
+        <v>0.0005071988306013597</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.399249822319429</v>
+        <v>-16.34893509397246</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0449242258752021</v>
+        <v>1.646061341705842e-46</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007043565826387415</v>
+        <v>-0.008951942563352151</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003144296611156905</v>
+        <v>-0.006963754327689683</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07290905802260118</v>
+        <v>0.06903639121069263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003656609879723357</v>
+        <v>-0.006266542781214153</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009917148395066303</v>
+        <v>0.0005189023264325247</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.063186702086658</v>
+        <v>-11.83704454276323</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1581455106641562</v>
+        <v>8.544350706639894e-29</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.005600353845845305</v>
+        <v>-0.007283575387421551</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001712865913601407</v>
+        <v>-0.005249510175006755</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07434637936164999</v>
+        <v>0.0707276968749994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001515308684220286</v>
+        <v>-0.004002812593140008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009896691276289385</v>
+        <v>0.0005069924425839406</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.324573526623977</v>
+        <v>-7.877349868079113</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1050372647649936</v>
+        <v>3.783802561011822e-15</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003455042954142702</v>
+        <v>-0.004996502165609841</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0004244255857021284</v>
+        <v>-0.003009123020670176</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07648768055715306</v>
+        <v>0.07299142706307354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>85%&gt;gen/cap&gt;80%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001393539222528531</v>
+        <v>-0.00242980919556134</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000994197999806276</v>
+        <v>0.000503812841106655</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.331549670341947</v>
+        <v>-4.493664753797132</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1607672351947586</v>
+        <v>0.0006715006414980336</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003342150114822616</v>
+        <v>-0.003417266825376111</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005550716697655546</v>
+        <v>-0.00144235156574657</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07660945001884481</v>
+        <v>0.07456443046065221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>90%&gt;gen/cap&gt;85%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002371001989687614</v>
+        <v>-0.001303467205928907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009692966332934227</v>
+        <v>0.0005209313027690822</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.927688108922383</v>
+        <v>-3.122159773580741</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2289399130568548</v>
+        <v>0.1354620591317127</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004270806635033979</v>
+        <v>-0.002324476537535025</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0004711973443412499</v>
+        <v>-0.0002824578743227876</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07563198725168574</v>
+        <v>0.07569077245028465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gen/cap&gt;135%</t>
+          <t>95%&gt;gen/cap&gt;90%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.07800298924137335</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>-0.002581400184398563</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0005107539393873822</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-5.817468755401923</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0001595666129936088</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.003582462229110675</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.001580338139686451</v>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.07441283947181498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>gen/cap&gt;135%</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0.06388423309373906</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001596768634045467</v>
+      </c>
+      <c r="D26" t="n">
+        <v>35.52484847518591</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.967042354835999e-138</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06075461536233442</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06701385082514369</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.07800298924137335</v>
+        <v>0.1408784727499526</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-4final.xlsx
+++ b/hourly datasets/cap_gen_year-4final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,723 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07699423965621355</v>
+        <v>0.1812073729925033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002136065079397322</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.000714064924072249</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.442321740502984</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.001357445521550493</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0007365197392141638</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.003535610419580481</v>
-      </c>
+        <v>0.1149023269764087</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.07913030473561088</v>
+        <v>0.296109699968912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01159257279452226</v>
+        <v>0.1319014178323719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001219869276552708</v>
+        <v>0.01157806350795663</v>
       </c>
       <c r="D4" t="n">
-        <v>8.283266409881842</v>
+        <v>20.31600793777129</v>
       </c>
       <c r="E4" t="n">
-        <v>2.455491085022402e-09</v>
+        <v>0.02983669320151644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009201666129321493</v>
+        <v>0.109204647394773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01398347945972302</v>
+        <v>0.1545981882699706</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08858681245073581</v>
+        <v>0.3131087908248752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0531000885534139</v>
+        <v>0.1229006922009039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002471498364642754</v>
+        <v>0.00816191948000957</v>
       </c>
       <c r="D5" t="n">
-        <v>21.81244191468928</v>
+        <v>20.46406815240909</v>
       </c>
       <c r="E5" t="n">
-        <v>3.614122183643611e-101</v>
+        <v>0.02876461542498879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04825602623055938</v>
+        <v>0.106901362398841</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05794415087626842</v>
+        <v>0.1389000220029672</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1300943282096275</v>
+        <v>0.3041080651934072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06627064596797026</v>
+        <v>0.08786394510270047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003612342372319574</v>
+        <v>0.00840969585183368</v>
       </c>
       <c r="D6" t="n">
-        <v>19.51825469578559</v>
+        <v>5.292732873386882</v>
       </c>
       <c r="E6" t="n">
-        <v>1.907706688816555e-26</v>
+        <v>0.004297758249304813</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05919056869522173</v>
+        <v>0.07137889703437682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0733507232407188</v>
+        <v>0.1043489931710243</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1432648856241838</v>
+        <v>0.2690713180952038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05303816425748428</v>
+        <v>0.1007791628542084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0154542645840133</v>
+        <v>0.008346565851806076</v>
       </c>
       <c r="D7" t="n">
-        <v>18.22876526854494</v>
+        <v>5.509222699197239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2749095327643388</v>
+        <v>0.0002738327404602279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02274831094093235</v>
+        <v>0.08441787356039698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08332801757403621</v>
+        <v>0.1171404521480201</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1300324039136978</v>
+        <v>0.2819865358467117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06357106548722641</v>
+        <v>0.08075156801769989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01182015119928298</v>
+        <v>0.005166017619445305</v>
       </c>
       <c r="D8" t="n">
-        <v>14.9415281229764</v>
+        <v>5.292712359844566</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09720988479359305</v>
+        <v>1.154456888591248e-41</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04040395282381733</v>
+        <v>0.07062491764316503</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0867381781506355</v>
+        <v>0.09087821839223445</v>
       </c>
       <c r="H8" t="n">
-        <v>0.14056530514344</v>
+        <v>0.2619589410102032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05861274728887465</v>
+        <v>0.08389136093181798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0050077386367045</v>
+        <v>0.004720057429368951</v>
       </c>
       <c r="D9" t="n">
-        <v>17.80121790097613</v>
+        <v>6.023697545052686</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02970079211986037</v>
+        <v>2.322761076718693e-44</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04879773942199888</v>
+        <v>0.07463890035760186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06842775515575042</v>
+        <v>0.09314382150603462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1356069869450882</v>
+        <v>0.2650987339243213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07699423965621355</v>
+        <v>0.07956463668070625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004765546690353926</v>
+        <v>0.00428964073441217</v>
       </c>
       <c r="D10" t="n">
-        <v>-174.5266124724704</v>
+        <v>6.291178115513367</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.133533935194683e-46</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07792827213294053</v>
+        <v>0.07115589703494389</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07606020717948657</v>
+        <v>0.08797337632646865</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2607720096732096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02888212564271414</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004980814961774719</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-61.68005171812727</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.02985835004141893</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.02790590124400934</v>
-      </c>
+        <v>0.03819774376700859</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.04811211401349941</v>
+        <v>0.2194051167595119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02402224049891178</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004883737916974052</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-52.23973010935477</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.02497943809540563</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.02306504290241793</v>
-      </c>
+        <v>0.0514822547357924</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.05297199915730177</v>
+        <v>0.2326896277282957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02020633602369902</v>
+        <v>0.05761092696756239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004846976399385352</v>
+        <v>0.009054916068238708</v>
       </c>
       <c r="D13" t="n">
-        <v>-42.88596983142469</v>
+        <v>7.473689313705015</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.03925461530611807</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02115632847994901</v>
+        <v>0.03985939132785002</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01925634356744903</v>
+        <v>0.07536246260727479</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05678790363251453</v>
+        <v>0.2388182999600657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01749104368499764</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004731942471222773</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-37.93460796680762</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.361632976665488e-262</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.01841848984119145</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.01656359752880383</v>
-      </c>
+        <v>0.06331578571678642</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.05950319597121591</v>
+        <v>0.2445231587092897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01477166331715771</v>
+        <v>0.07012467774547666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004719296174076465</v>
+        <v>0.008885986523187965</v>
       </c>
       <c r="D15" t="n">
-        <v>-33.50377036548491</v>
+        <v>9.873317275176589</v>
       </c>
       <c r="E15" t="n">
-        <v>5.351999412689911e-152</v>
+        <v>0.04292870573004215</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01569663085005864</v>
+        <v>0.05270433003087348</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01384669578425677</v>
+        <v>0.08754502546007988</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06222257633905584</v>
+        <v>0.25133205073798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0109059500294208</v>
+        <v>0.07271348380919734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004735548231036322</v>
+        <v>0.008880702171241565</v>
       </c>
       <c r="D16" t="n">
-        <v>-24.60616739008181</v>
+        <v>10.37160366422293</v>
       </c>
       <c r="E16" t="n">
-        <v>7.461792989506166e-87</v>
+        <v>0.04501718109481101</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0118341029308993</v>
+        <v>0.0553026989371942</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.009977797127942304</v>
+        <v>0.09012426868120056</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06608828962679275</v>
+        <v>0.2539208568017006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01128488307986634</v>
+        <v>0.07329523778481956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004882389048789513</v>
+        <v>0.008921183313748929</v>
       </c>
       <c r="D17" t="n">
-        <v>-23.18263302348532</v>
+        <v>10.69323579550888</v>
       </c>
       <c r="E17" t="n">
-        <v>7.117298691780633e-117</v>
+        <v>0.02771159452107471</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01224181632010759</v>
+        <v>0.05580407807436166</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01032794983962509</v>
+        <v>0.09078639749527742</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0657093565763472</v>
+        <v>0.2545026107773228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007760298307205492</v>
+        <v>-0.1812073729925033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004969206605491901</v>
+        <v>0.01035341719946299</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.61443822485369</v>
+        <v>-28.82034532577996</v>
       </c>
       <c r="E18" t="n">
-        <v>1.618521401045535e-29</v>
+        <v>0.008627416771592258</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.008734247508980778</v>
+        <v>-0.2015040311583807</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006786349105430205</v>
+        <v>-0.160910714826626</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06923394134900805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007789544702405066</v>
+        <v>0.07601616774014504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004937492989384938</v>
+        <v>0.008547728174508235</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.18269818329463</v>
+        <v>11.16887635799158</v>
       </c>
       <c r="E19" t="n">
-        <v>1.88988338419006e-50</v>
+        <v>0.02572575380045545</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.008757278149521829</v>
+        <v>0.05925997949163724</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.006821811255288304</v>
+        <v>0.0927723559886528</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06920469495380849</v>
+        <v>0.2572235407326484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007957848445520917</v>
+        <v>0.07811400873416463</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005071988306013597</v>
+        <v>0.0092510290072016</v>
       </c>
       <c r="D20" t="n">
-        <v>-16.34893509397246</v>
+        <v>11.23949136383109</v>
       </c>
       <c r="E20" t="n">
-        <v>1.646061341705842e-46</v>
+        <v>0.03068552153577491</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008951942563352151</v>
+        <v>0.05997916334083057</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.006963754327689683</v>
+        <v>0.09624885412749859</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06903639121069263</v>
+        <v>0.259321381726668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006266542781214153</v>
+        <v>0.08168440082014569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005189023264325247</v>
+        <v>0.009290855295824976</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.83704454276323</v>
+        <v>12.01796571441784</v>
       </c>
       <c r="E21" t="n">
-        <v>8.544350706639894e-29</v>
+        <v>0.03233550427800127</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.007283575387421551</v>
+        <v>0.0634714401830178</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.005249510175006755</v>
+        <v>0.0998973614572736</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0707276968749994</v>
+        <v>0.262891773812649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004002812593140008</v>
+        <v>0.08033635134658686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005069924425839406</v>
+        <v>0.008969120714195899</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.877349868079113</v>
+        <v>12.42148651469261</v>
       </c>
       <c r="E22" t="n">
-        <v>3.783802561011822e-15</v>
+        <v>0.04077206967398528</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.004996502165609841</v>
+        <v>0.06275394980858347</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003009123020670176</v>
+        <v>0.0979187528845903</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07299142706307354</v>
+        <v>0.2615437243390902</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00242980919556134</v>
+        <v>0.08526827610181988</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000503812841106655</v>
+        <v>0.008655792337431811</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.493664753797132</v>
+        <v>12.28946485719051</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006715006414980336</v>
+        <v>0.02496517637836284</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003417266825376111</v>
+        <v>0.06830024863861842</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00144235156574657</v>
+        <v>0.1022363035650213</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07456443046065221</v>
+        <v>0.2664756490943232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001303467205928907</v>
+        <v>0.08706093482180451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005209313027690822</v>
+        <v>0.009084471270033333</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.122159773580741</v>
+        <v>12.31940963398369</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1354620591317127</v>
+        <v>0.03274312389235538</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002324476537535025</v>
+        <v>0.06925246991510979</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0002824578743227876</v>
+        <v>0.1048693997284994</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07569077245028465</v>
+        <v>0.2682683078143078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002581400184398563</v>
+        <v>0.09643263687281461</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005107539393873822</v>
+        <v>0.009066199986190395</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.817468755401923</v>
+        <v>13.83223775033829</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001595666129936088</v>
+        <v>0.02509500781533115</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003582462229110675</v>
+        <v>0.0786601497327073</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001580338139686451</v>
+        <v>0.114205124012922</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07441283947181498</v>
+        <v>0.2776400098653179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1003400634838885</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009105424281177041</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.17330259769869</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01418018159055527</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08249061499095199</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.118189511976825</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2815474364763918</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1014956855830127</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00919712588188341</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.96180450501803</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03943089804455924</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.08346662426559719</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1195247469004282</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.282703058575516</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1025042036280988</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.009657577333164915</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.87681435318516</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05533126973558407</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08357253596357343</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.121435871292624</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2837115766206021</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.06388423309373906</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001596768634045467</v>
-      </c>
-      <c r="D26" t="n">
-        <v>35.52484847518591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.967042354835999e-138</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.06075461536233442</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06701385082514369</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1408784727499526</v>
+      <c r="B29" t="n">
+        <v>0.08275378323245697</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.004228339823104507</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.640076991060786</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.610625091153351e-47</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.07446520827480084</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.09104235819011333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2639611562249603</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-4final.xlsx
+++ b/hourly datasets/cap_gen_year-4final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1812073729925033</v>
+        <v>0.1162205337124879</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1149023269764087</v>
+        <v>0.1159475776526635</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.296109699968912</v>
+        <v>0.2321681113651514</v>
       </c>
     </row>
     <row r="4">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1319014178323719</v>
+        <v>0.13357075316607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01157806350795663</v>
+        <v>0.01179703357937737</v>
       </c>
       <c r="D4" t="n">
-        <v>20.31600793777129</v>
+        <v>20.58699692357818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02983669320151644</v>
+        <v>0.03033988233797874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.109204647394773</v>
+        <v>0.1104444260845312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1545981882699706</v>
+        <v>0.1566970802476083</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3131087908248752</v>
+        <v>0.2497912868785579</v>
       </c>
     </row>
     <row r="5">
@@ -546,25 +546,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1229006922009039</v>
+        <v>0.1228575463317561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00816191948000957</v>
+        <v>0.008156771566143299</v>
       </c>
       <c r="D5" t="n">
-        <v>20.46406815240909</v>
+        <v>20.46737717312538</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02876461542498879</v>
+        <v>0.02866258988314367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106901362398841</v>
+        <v>0.1068683027896997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1389000220029672</v>
+        <v>0.1388467898738125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3041080651934072</v>
+        <v>0.239078080044244</v>
       </c>
     </row>
     <row r="6">
@@ -574,25 +574,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08786394510270047</v>
+        <v>0.08791383177406166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00840969585183368</v>
+        <v>0.00840672631726566</v>
       </c>
       <c r="D6" t="n">
-        <v>5.292732873386882</v>
+        <v>5.306776804638185</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004297758249304813</v>
+        <v>0.004379439210882941</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07137889703437682</v>
+        <v>0.07143459776743939</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1043489931710243</v>
+        <v>0.1043930657806837</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2690713180952038</v>
+        <v>0.2041343654865496</v>
       </c>
     </row>
     <row r="7">
@@ -602,25 +602,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1007791628542084</v>
+        <v>0.1007887833569711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008346565851806076</v>
+        <v>0.008340925827625694</v>
       </c>
       <c r="D7" t="n">
-        <v>5.509222699197239</v>
+        <v>5.521294417558253</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002738327404602279</v>
+        <v>0.0002768320724300602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08441787356039698</v>
+        <v>0.08443854454145189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1171404521480201</v>
+        <v>0.1171390221724903</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2819865358467117</v>
+        <v>0.217009317069459</v>
       </c>
     </row>
     <row r="8">
@@ -630,25 +630,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08075156801769989</v>
+        <v>0.08076945253612626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005166017619445305</v>
+        <v>0.005160975709345611</v>
       </c>
       <c r="D8" t="n">
-        <v>5.292712359844566</v>
+        <v>5.300585579962204</v>
       </c>
       <c r="E8" t="n">
-        <v>1.154456888591248e-41</v>
+        <v>2.207715863492478e-41</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07062491764316503</v>
+        <v>0.07065268261852077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09087821839223445</v>
+        <v>0.09088622245373243</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2619589410102032</v>
+        <v>0.1969899862486142</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08389136093181798</v>
+        <v>0.0839124389506023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004720057429368951</v>
+        <v>0.004715800976607847</v>
       </c>
       <c r="D9" t="n">
-        <v>6.023697545052686</v>
+        <v>6.032688380303757</v>
       </c>
       <c r="E9" t="n">
-        <v>2.322761076718693e-44</v>
+        <v>5.06214135483377e-44</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07463890035760186</v>
+        <v>0.07466831928774365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09314382150603462</v>
+        <v>0.09315655861346119</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2650987339243213</v>
+        <v>0.2001329726630902</v>
       </c>
     </row>
     <row r="10">
@@ -686,25 +686,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07956463668070625</v>
+        <v>0.07958893669482638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00428964073441217</v>
+        <v>0.004286041305547478</v>
       </c>
       <c r="D10" t="n">
-        <v>6.291178115513367</v>
+        <v>6.300713455353969</v>
       </c>
       <c r="E10" t="n">
-        <v>5.133533935194683e-46</v>
+        <v>1.151425826643004e-45</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07115589703494389</v>
+        <v>0.0711872501973065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08797337632646865</v>
+        <v>0.08799062319234656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2607720096732096</v>
+        <v>0.1958094704073143</v>
       </c>
     </row>
     <row r="11">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03819774376700859</v>
+        <v>0.03852213677568325</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -722,7 +722,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.2194051167595119</v>
+        <v>0.1547426704881712</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0514822547357924</v>
+        <v>0.05231807266108257</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.2326896277282957</v>
+        <v>0.1685386063735705</v>
       </c>
     </row>
     <row r="13">
@@ -750,25 +750,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05761092696756239</v>
+        <v>0.05934863508450505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009054916068238708</v>
+        <v>0.008941158084238263</v>
       </c>
       <c r="D13" t="n">
-        <v>7.473689313705015</v>
+        <v>8.20126881744941</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03925461530611807</v>
+        <v>0.03927449497572273</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03985939132785002</v>
+        <v>0.04182032212418055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07536246260727479</v>
+        <v>0.07687694804482947</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2388182999600657</v>
+        <v>0.175569168796993</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06331578571678642</v>
+        <v>0.06494635472541754</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -786,7 +786,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2445231587092897</v>
+        <v>0.1811668884379055</v>
       </c>
     </row>
     <row r="15">
@@ -796,25 +796,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07012467774547666</v>
+        <v>0.07194714387278678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008885986523187965</v>
+        <v>0.008770652708367917</v>
       </c>
       <c r="D15" t="n">
-        <v>9.873317275176589</v>
+        <v>10.61273806437143</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04292870573004215</v>
+        <v>0.04307445696745881</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05270433003087348</v>
+        <v>0.05475311190399069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08754502546007988</v>
+        <v>0.0891411758415829</v>
       </c>
       <c r="H15" t="n">
-        <v>0.25133205073798</v>
+        <v>0.1881676775852747</v>
       </c>
     </row>
     <row r="16">
@@ -824,25 +824,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07271348380919734</v>
+        <v>0.07455289909647499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008880702171241565</v>
+        <v>0.008677549097905558</v>
       </c>
       <c r="D16" t="n">
-        <v>10.37160366422293</v>
+        <v>11.05878832989381</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04501718109481101</v>
+        <v>0.04017530756650255</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0553026989371942</v>
+        <v>0.05754097458746286</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09012426868120056</v>
+        <v>0.09156482360548718</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2539208568017006</v>
+        <v>0.1907734328089629</v>
       </c>
     </row>
     <row r="17">
@@ -852,25 +852,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07329523778481956</v>
+        <v>0.07528958210056472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008921183313748929</v>
+        <v>0.008640939338038599</v>
       </c>
       <c r="D17" t="n">
-        <v>10.69323579550888</v>
+        <v>11.35585986782622</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02771159452107471</v>
+        <v>0.0249703542156049</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05580407807436166</v>
+        <v>0.05834907655275946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09078639749527742</v>
+        <v>0.09223008764836987</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2545026107773228</v>
+        <v>0.1915101158130526</v>
       </c>
     </row>
     <row r="18">
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1812073729925033</v>
+        <v>-0.1162205337124879</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01035341719946299</v>
+        <v>0.01253467892277532</v>
       </c>
       <c r="D18" t="n">
-        <v>-28.82034532577996</v>
+        <v>-15.4380905202572</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008627416771592258</v>
+        <v>0.01882419988679694</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2015040311583807</v>
+        <v>-0.1407934207662741</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.160910714826626</v>
+        <v>-0.09164764665870184</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -908,25 +908,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07601616774014504</v>
+        <v>0.07828611377103283</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008547728174508235</v>
+        <v>0.008575166622851921</v>
       </c>
       <c r="D19" t="n">
-        <v>11.16887635799158</v>
+        <v>11.87429842691712</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02572575380045545</v>
+        <v>0.02520922667591334</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05925997949163724</v>
+        <v>0.06147606037796181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0927723559886528</v>
+        <v>0.0950961671641038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2572235407326484</v>
+        <v>0.1945066474835208</v>
       </c>
     </row>
     <row r="20">
@@ -936,25 +936,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07811400873416463</v>
+        <v>0.08057695117083762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0092510290072016</v>
+        <v>0.009289761127057723</v>
       </c>
       <c r="D20" t="n">
-        <v>11.23949136383109</v>
+        <v>11.92277877382736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03068552153577491</v>
+        <v>0.02815314867482911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05997916334083057</v>
+        <v>0.06236609839545573</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09624885412749859</v>
+        <v>0.0987878039462195</v>
       </c>
       <c r="H20" t="n">
-        <v>0.259321381726668</v>
+        <v>0.1967974848833255</v>
       </c>
     </row>
     <row r="21">
@@ -964,25 +964,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08168440082014569</v>
+        <v>0.08427720798608049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009290855295824976</v>
+        <v>0.009337534876854294</v>
       </c>
       <c r="D21" t="n">
-        <v>12.01796571441784</v>
+        <v>12.65246232189531</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03233550427800127</v>
+        <v>0.02681128183523957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0634714401830178</v>
+        <v>0.06597265414501301</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0998973614572736</v>
+        <v>0.102581761827148</v>
       </c>
       <c r="H21" t="n">
-        <v>0.262891773812649</v>
+        <v>0.2004977416985684</v>
       </c>
     </row>
     <row r="22">
@@ -992,25 +992,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08033635134658686</v>
+        <v>0.08303181943855802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008969120714195899</v>
+        <v>0.009025992529508232</v>
       </c>
       <c r="D22" t="n">
-        <v>12.42148651469261</v>
+        <v>13.04893686287754</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04077206967398528</v>
+        <v>0.03469757206667382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06275394980858347</v>
+        <v>0.06533782118847553</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0979187528845903</v>
+        <v>0.1007258176886404</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2615437243390902</v>
+        <v>0.1992523531510459</v>
       </c>
     </row>
     <row r="23">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08526827610181988</v>
+        <v>0.08828475537890729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008655792337431811</v>
+        <v>0.008705141796380966</v>
       </c>
       <c r="D23" t="n">
-        <v>12.28946485719051</v>
+        <v>12.95078220764377</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02496517637836284</v>
+        <v>0.02260020994592784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06830024863861842</v>
+        <v>0.0712199074564837</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1022363035650213</v>
+        <v>0.1053496033013308</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2664756490943232</v>
+        <v>0.2045052890913952</v>
       </c>
     </row>
     <row r="24">
@@ -1048,25 +1048,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08706093482180451</v>
+        <v>0.09012218200051153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009084471270033333</v>
+        <v>0.009152598291821379</v>
       </c>
       <c r="D24" t="n">
-        <v>12.31940963398369</v>
+        <v>12.88489703750272</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03274312389235538</v>
+        <v>0.03248491425092325</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06925246991510979</v>
+        <v>0.07218006881263604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1048693997284994</v>
+        <v>0.1080642951883869</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2682683078143078</v>
+        <v>0.2063427157129994</v>
       </c>
     </row>
     <row r="25">
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09643263687281461</v>
+        <v>0.09920758254248599</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009066199986190395</v>
+        <v>0.009175826646502223</v>
       </c>
       <c r="D25" t="n">
-        <v>13.83223775033829</v>
+        <v>14.26386389952369</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02509500781533115</v>
+        <v>0.01469418477787258</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0786601497327073</v>
+        <v>0.08122010587443278</v>
       </c>
       <c r="G25" t="n">
-        <v>0.114205124012922</v>
+        <v>0.1171950592105392</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2776400098653179</v>
+        <v>0.2154281162549739</v>
       </c>
     </row>
     <row r="26">
@@ -1104,25 +1104,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1003400634838885</v>
+        <v>0.1024377258300269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009105424281177041</v>
+        <v>0.009207981224574481</v>
       </c>
       <c r="D26" t="n">
-        <v>14.17330259769869</v>
+        <v>14.57300151360771</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01418018159055527</v>
+        <v>0.01366177734269737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08249061499095199</v>
+        <v>0.08438714453380632</v>
       </c>
       <c r="G26" t="n">
-        <v>0.118189511976825</v>
+        <v>0.1204883071262474</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2815474364763918</v>
+        <v>0.2186582595425148</v>
       </c>
     </row>
     <row r="27">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1014956855830127</v>
+        <v>0.1038443713201875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00919712588188341</v>
+        <v>0.009298227873855947</v>
       </c>
       <c r="D27" t="n">
-        <v>13.96180450501803</v>
+        <v>14.37158067603893</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03943089804455924</v>
+        <v>0.03270904977906969</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08346662426559719</v>
+        <v>0.08561703457399401</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1195247469004282</v>
+        <v>0.1220717080663811</v>
       </c>
       <c r="H27" t="n">
-        <v>0.282703058575516</v>
+        <v>0.2200649050326755</v>
       </c>
     </row>
     <row r="28">
@@ -1160,25 +1160,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1025042036280988</v>
+        <v>0.1045973719965627</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009657577333164915</v>
+        <v>0.009541683941681636</v>
       </c>
       <c r="D28" t="n">
-        <v>13.87681435318516</v>
+        <v>14.24236688609829</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05533126973558407</v>
+        <v>0.04827849949460525</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08357253596357343</v>
+        <v>0.08589279732843817</v>
       </c>
       <c r="G28" t="n">
-        <v>0.121435871292624</v>
+        <v>0.1233019466646873</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2837115766206021</v>
+        <v>0.2208179057090506</v>
       </c>
     </row>
     <row r="29">
@@ -1188,25 +1188,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08275378323245697</v>
+        <v>0.08277799444486302</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004228339823104507</v>
+        <v>0.004224814433532974</v>
       </c>
       <c r="D29" t="n">
-        <v>6.640076991060786</v>
+        <v>6.650108748883514</v>
       </c>
       <c r="E29" t="n">
-        <v>2.610625091153351e-47</v>
+        <v>6.268562128291161e-47</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07446520827480084</v>
+        <v>0.07449632753429432</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09104235819011333</v>
+        <v>0.09105966135543204</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2639611562249603</v>
+        <v>0.1989985281573509</v>
       </c>
     </row>
   </sheetData>
